--- a/Data_Edited.xlsx
+++ b/Data_Edited.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK2"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,7 +629,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>INDOSAT TBK, PT.333</t>
+          <t>INDOSAT TBK, PT.</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -755,6 +755,691 @@
       </c>
       <c r="AK2" t="n">
         <v>100.4028027777778</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2460849112021</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>INDOSAT TBK, PT.</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>22358</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23366</v>
+      </c>
+      <c r="F3" t="n">
+        <v>28000</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>23G_XMC2_128Q_28M_157M</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>030659_PAKAN LADANG</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>JL. RAYA TIGO BALEH KOTO KACIAK PAKAN LADANG KEC.AUR KUNING TIGO BALEH KODYA BUKIT TINGGI</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>100.40280278</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.311475</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.417</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>18</v>
+      </c>
+      <c r="O3" t="n">
+        <v>41.31</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>100</v>
+      </c>
+      <c r="R3" t="n">
+        <v>24</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>02496857-000SU/2620212026</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>01-NOV-21</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>2460849112021</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>01-NOV-25</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>030700_PINTU ANGIN</t>
+        </is>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>55.47</v>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AD3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.311475</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>100.4028027777778</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.2987416666666667</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>100.4022916666667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2460849112021</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>INDOSAT TBK, PT.</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>23366</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22358</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28000</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>23G_XMC2_128Q_28M_157M</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>030700_PINTU ANGIN</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>JORONG PARIT PUTUIH, NAGARI AMPANG GADANG, KENAGARIAN AMPEK ANGKEK, KABUPATEN AGAM, PROPINSI SUMATERA BARAT</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>100.40229167</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.29874167</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.417</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>17</v>
+      </c>
+      <c r="O4" t="n">
+        <v>55.47</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>100</v>
+      </c>
+      <c r="R4" t="n">
+        <v>24</v>
+      </c>
+      <c r="S4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>02496858-000SU/2620212026</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>01-NOV-21</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>2460849112021</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>01-NOV-25</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>030659_PAKAN LADANG</t>
+        </is>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41.31</v>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AD4" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.2987416666666667</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>100.4022916666667</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.311475</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>100.4028027777778</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2063388112024</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>INDOSAT TBK, PTaaaa</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>23226</v>
+      </c>
+      <c r="E5" t="n">
+        <v>22218</v>
+      </c>
+      <c r="F5" t="n">
+        <v>28000</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>23G_XMC2_256Q_28M_183M</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>030704_KAMPUANG NAN LIMO</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Bonjo Alam, Agam, Sumatera Barat, Sumatera, 26126, Indonesia</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>100.4021875</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.2986875</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>17</v>
+      </c>
+      <c r="O5" t="n">
+        <v>55.275</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>100</v>
+      </c>
+      <c r="R5" t="n">
+        <v>24</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7.875</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>02933815-000SU/2620242029</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>07-NOV-24</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>2063388112024</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>13-NOV-25</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>030659_PAKAN LADANG</t>
+        </is>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41.18</v>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AD5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.2986875</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>100.4021875</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.3114388888888889</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>100.4028111111111</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2003327052024</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>INDOSAT TBK, PT.</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>22050</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23058</v>
+      </c>
+      <c r="F6" t="n">
+        <v>28000</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>HUAWEI_RTN 600_23G_XMC2_128Q_14M_158M</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>032413_AMPANG GADANG_AGAM</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>JORONG KOTO HILALANG NAGARI LAMBAH KECAMATAN AMPEK ANGKEK KABUPATEN AGAM PROVINSI SUMATERA BARAT</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>100.44559167</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.28819167</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.336</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>17</v>
+      </c>
+      <c r="O6" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>100</v>
+      </c>
+      <c r="R6" t="n">
+        <v>26</v>
+      </c>
+      <c r="S6" t="n">
+        <v>44.13</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>02865557-000SU/2620242029</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>17-MAY-24</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>2003327052024</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>27-MAY-26</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>030061_SD IMPRES - PARAK TANJUNG</t>
+        </is>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AD6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.2881916666666667</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>100.4455916666667</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.2901305555555556</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>100.4337305555556</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2003327052024</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>INDOSAT TBK, PT.</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>23058</v>
+      </c>
+      <c r="E7" t="n">
+        <v>22050</v>
+      </c>
+      <c r="F7" t="n">
+        <v>28000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>HUAWEI_RTN 600_23G_XMC2_128Q_14M_158M</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>030061_SD IMPRES - PARAK TANJUNG</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>JL SD IMPRES PARAK TANJUNG JORONG BIARO NAGARI BIARO GADANG KEC AMPEK ANGKEK,PARAK TANJUNG - AMPEK ANGKEK,PADANG,SUMATRA BARAT (100.43373, -.29013)</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>100.43373056</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.29013056</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.336</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>17</v>
+      </c>
+      <c r="O7" t="n">
+        <v>24.47</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>100</v>
+      </c>
+      <c r="R7" t="n">
+        <v>26</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>02865558-000SU/2620242029</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>17-MAY-24</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v>2003327052024</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>27-MAY-26</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>032413_AMPANG GADANG_AGAM</t>
+        </is>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AD7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>44.13</v>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.2901305555555556</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>100.4337305555556</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.2881916666666667</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>100.4455916666667</v>
       </c>
     </row>
   </sheetData>
